--- a/document/画面设计.xlsx
+++ b/document/画面设计.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyApp\Project\StarFire\document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20700" windowHeight="13635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="13635"/>
   </bookViews>
   <sheets>
     <sheet name="画面关系图" sheetId="1" r:id="rId1"/>
@@ -12,19 +17,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -48,23 +46,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -73,19 +56,658 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="流程图: 决策 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5229225" y="790575"/>
+          <a:ext cx="1504950" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>首次登录？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="矩形 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4505325" y="1457325"/>
+          <a:ext cx="790575" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>欢迎画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1029" name="矩形 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4505325" y="2019300"/>
+          <a:ext cx="790575" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>登录页面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="矩形 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3438525" y="3952875"/>
+          <a:ext cx="790575" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>注册页面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1031" name="流程图: 决策 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4095750" y="2762250"/>
+          <a:ext cx="1647825" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>注册/跳过及正常登录</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1032" name="矩形 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6619875" y="2466975"/>
+          <a:ext cx="790575" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>消费者主页</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1033" name="流程图: 决策 9"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6934200" y="1447800"/>
+          <a:ext cx="1504950" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>跳过或登录</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1034" name="矩形 10"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7943850" y="2476500"/>
+          <a:ext cx="790575" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>商户主页</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6267450" y="4914900"/>
+          <a:ext cx="790575" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>注册页面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,6 +1005,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -415,53 +1038,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="L31" sqref="L30:L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/document/画面设计.xlsx
+++ b/document/画面设计.xlsx
@@ -9,15 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="13635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="13635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="画面关系图" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="消费者主页" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>地图</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37,12 +45,92 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -51,9 +139,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -76,16 +191,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -96,7 +211,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5229225" y="790575"/>
+          <a:off x="5495925" y="552450"/>
           <a:ext cx="1504950" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -217,15 +332,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -236,7 +351,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4505325" y="2019300"/>
+          <a:off x="4514850" y="2038350"/>
           <a:ext cx="790575" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -429,16 +544,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -449,7 +564,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6619875" y="2466975"/>
+          <a:off x="9372600" y="5743575"/>
           <a:ext cx="790575" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -500,15 +615,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -519,7 +634,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6934200" y="1447800"/>
+          <a:off x="6905625" y="1676400"/>
           <a:ext cx="1504950" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
@@ -569,16 +684,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -589,7 +704,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7943850" y="2476500"/>
+          <a:off x="9382125" y="3686175"/>
           <a:ext cx="790575" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -639,16 +754,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -659,7 +774,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6267450" y="4914900"/>
+          <a:off x="9239250" y="1457325"/>
           <a:ext cx="790575" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -693,15 +808,3663 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="宋体"/>
               <a:ea typeface="宋体"/>
             </a:rPr>
-            <a:t>注册页面</a:t>
+            <a:t>游客主页</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="宋体"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>100014</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Elbow Connector 2"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="1027" idx="2"/>
+          <a:endCxn id="1028" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5322095" y="531019"/>
+          <a:ext cx="504825" cy="1347787"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Elbow Connector 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="1028" idx="2"/>
+          <a:endCxn id="1029" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4767263" y="1895474"/>
+          <a:ext cx="276225" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Elbow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="1031" idx="3"/>
+          <a:endCxn id="1033" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5743575" y="1676400"/>
+          <a:ext cx="1914525" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 30348"/>
+            <a:gd name="adj2" fmla="val 116107"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Elbow Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="1029" idx="2"/>
+          <a:endCxn id="1031" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4705350" y="2547937"/>
+          <a:ext cx="419100" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Elbow Connector 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="1027" idx="2"/>
+          <a:endCxn id="1033" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6591300" y="609600"/>
+          <a:ext cx="723900" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>404814</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Elbow Connector 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="1031" idx="1"/>
+          <a:endCxn id="1030" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3833814" y="3095625"/>
+          <a:ext cx="261937" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Elbow Connector 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="1033" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8410575" y="1609725"/>
+          <a:ext cx="828675" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="流程图: 决策 9"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6905625" y="3638550"/>
+          <a:ext cx="1504950" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>商户或消费者</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="宋体"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Elbow Connector 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="1033" idx="2"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6877050" y="2857500"/>
+          <a:ext cx="1562100" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Elbow Connector 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="1030" idx="2"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="5436393" y="2035969"/>
+          <a:ext cx="619125" cy="3824287"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36923"/>
+            <a:gd name="adj2" fmla="val 45330"/>
+            <a:gd name="adj3" fmla="val 136923"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Elbow Connector 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="1"/>
+          <a:endCxn id="1032" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="6905624" y="3838575"/>
+          <a:ext cx="2466975" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -9266"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Elbow Connector 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="3"/>
+          <a:endCxn id="1034" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8410575" y="3838575"/>
+          <a:ext cx="971550" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="矩形 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11468100" y="4953000"/>
+          <a:ext cx="790575" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>地图</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="宋体"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="矩形 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3305175" y="4981575"/>
+          <a:ext cx="866775" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>设定常用地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="宋体"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="矩形 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4533900" y="4981575"/>
+          <a:ext cx="866775" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>设定常用地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="宋体"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="矩形 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12525375" y="4953000"/>
+          <a:ext cx="790575" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>列表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="宋体"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="矩形 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11496675" y="5638800"/>
+          <a:ext cx="790575" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>摊位管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="宋体"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="矩形 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12553950" y="5638800"/>
+          <a:ext cx="1038225" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>新增修改摊位</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="宋体"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="矩形 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11544300" y="6334125"/>
+          <a:ext cx="1285875" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>个人信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>偏好选项</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="宋体"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="矩形 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10629900" y="6877050"/>
+          <a:ext cx="1028700" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>个人信息修改</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="宋体"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="矩形 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11801475" y="6877050"/>
+          <a:ext cx="1028700" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>常用地址设定</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="宋体"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="矩形 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13001625" y="6886575"/>
+          <a:ext cx="1028700" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>常用地址设定</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="宋体"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="矩形 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13754100" y="5638800"/>
+          <a:ext cx="1038225" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000"/>
+        </a:gradFill>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:miter lim="200000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+            </a:rPr>
+            <a:t>摊位时间管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="宋体"/>
+            <a:ea typeface="宋体"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Line Callout 1 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7134225" y="295275"/>
+          <a:ext cx="1438275" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10029826" y="1123950"/>
+          <a:ext cx="857250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查看列表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13496926" y="1123950"/>
+          <a:ext cx="857250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查看地图</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8296276" y="1123950"/>
+          <a:ext cx="466724" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>返回</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448176" y="2152650"/>
+          <a:ext cx="857250" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>查看摊位</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11706226" y="1133475"/>
+          <a:ext cx="466724" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>返回</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11820525" y="1590675"/>
+          <a:ext cx="2133600" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11820525" y="1990725"/>
+          <a:ext cx="2133600" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11820525" y="2447925"/>
+          <a:ext cx="2133600" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11791950" y="2857500"/>
+          <a:ext cx="2133600" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11820525" y="3286125"/>
+          <a:ext cx="2133600" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11858625" y="3648075"/>
+          <a:ext cx="2133600" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581651" y="2152650"/>
+          <a:ext cx="857250" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>摊位管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448176" y="3057525"/>
+          <a:ext cx="857250" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>消息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5610226" y="3057525"/>
+          <a:ext cx="857250" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>关注摊位</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="1123950"/>
+          <a:ext cx="1066800" cy="3571875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="1171575"/>
+          <a:ext cx="952499" cy="714374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847726" y="1952626"/>
+          <a:ext cx="857250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>个人资料</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838201" y="2381251"/>
+          <a:ext cx="857250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>常用地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809626" y="2847976"/>
+          <a:ext cx="857250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>偏好设定</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819151" y="3286126"/>
+          <a:ext cx="857250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>帮助</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828676" y="3752851"/>
+          <a:ext cx="857250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>退出</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>271184</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>442634</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>141754</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9157449" y="4392706"/>
+          <a:ext cx="855009" cy="242607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>图示</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>298076</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>469526</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16019929" y="1115546"/>
+          <a:ext cx="855009" cy="236444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>筛选</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>206748</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>54909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>282947</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>73959</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15245042" y="1500468"/>
+          <a:ext cx="2126876" cy="198344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>全部 商户 创建 消费者创建</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>206748</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>54909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>282947</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15245042" y="1859056"/>
+          <a:ext cx="2126876" cy="258855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>显示范围</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>206748</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>166969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>282947</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15245042" y="2329704"/>
+          <a:ext cx="2126876" cy="258855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>时间类型</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>206748</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>282947</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15245042" y="2800351"/>
+          <a:ext cx="2126876" cy="258855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>仅仅显示关注</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>144556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4453778" y="6094880"/>
+          <a:ext cx="2126876" cy="198344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>3362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>20731</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextBox 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4453778" y="6491568"/>
+          <a:ext cx="2126876" cy="196663"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>96931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>115982</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="TextBox 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4453778" y="6943725"/>
+          <a:ext cx="2126876" cy="198345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>144557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>163607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4425203" y="7349939"/>
+          <a:ext cx="2126876" cy="198344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>30256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>49306</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4453778" y="7773521"/>
+          <a:ext cx="2126876" cy="198344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>30256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>49306</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4491878" y="8132109"/>
+          <a:ext cx="2126876" cy="198344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1041,8 +4804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L30:L31"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1056,15 +4819,591 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B6:Z50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
+      <c r="M7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="3"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="6"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="6"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="6"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="6"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="6"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="6"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="6"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="6"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="6"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="6"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="6"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="6"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="6"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="6"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="6"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="6"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="6"/>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="6"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="6"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="6"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="6"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="6"/>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="6"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="6"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="6"/>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="6"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="6"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="6"/>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="6"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="6"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="6"/>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="6"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="6"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="6"/>
+    </row>
+    <row r="26" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="9"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="9"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="9"/>
+    </row>
+    <row r="30" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="G31" s="1"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="G32" s="4"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G33" s="4"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G34" s="4"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G35" s="4"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G36" s="4"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G37" s="4"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G38" s="4"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G39" s="4"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G40" s="4"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G41" s="4"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G42" s="4"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G43" s="4"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G44" s="4"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G45" s="4"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G46" s="4"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G47" s="4"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G48" s="4"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G49" s="4"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G50" s="7"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="M7:P26"/>
+    <mergeCell ref="R7:U26"/>
+    <mergeCell ref="G7:J26"/>
+    <mergeCell ref="B7:E26"/>
+    <mergeCell ref="G31:J50"/>
+    <mergeCell ref="W7:Z26"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/document/画面设计.xlsx
+++ b/document/画面设计.xlsx
@@ -9,12 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="13635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="13635" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="画面关系图" sheetId="1" r:id="rId1"/>
     <sheet name="消费者主页" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="app欢迎画面" sheetId="3" r:id="rId3"/>
+    <sheet name="首次使用" sheetId="4" r:id="rId4"/>
+    <sheet name="登录" sheetId="6" r:id="rId5"/>
+    <sheet name="首页" sheetId="5" r:id="rId6"/>
+    <sheet name="搜索" sheetId="7" r:id="rId7"/>
+    <sheet name="列表" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -139,8 +144,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4431,6 +4463,3894 @@
         <a:xfrm>
           <a:off x="4491878" y="8132109"/>
           <a:ext cx="2126876" cy="198344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="561975"/>
+          <a:ext cx="2857500" cy="4305300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>背景图</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="1219200"/>
+          <a:ext cx="2324100" cy="2343150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>动图</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9048750" y="447675"/>
+          <a:ext cx="2895600" cy="4200525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>背景图</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5019675" y="485775"/>
+          <a:ext cx="2895600" cy="4200525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>背景图</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="523875"/>
+          <a:ext cx="2895600" cy="4200525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>背景图</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flowchart: Connector 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="4495800"/>
+          <a:ext cx="133350" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flowchart: Connector 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="4495800"/>
+          <a:ext cx="133350" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Flowchart: Connector 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="4495800"/>
+          <a:ext cx="133350" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Flowchart: Connector 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6048375" y="4495800"/>
+          <a:ext cx="133350" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Flowchart: Connector 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="4495800"/>
+          <a:ext cx="133350" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Flowchart: Connector 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981825" y="4495800"/>
+          <a:ext cx="133350" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Flowchart: Connector 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982200" y="4429125"/>
+          <a:ext cx="133350" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Flowchart: Connector 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10448925" y="4429125"/>
+          <a:ext cx="133350" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Flowchart: Connector 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10915650" y="4429125"/>
+          <a:ext cx="133350" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10887075" y="3819525"/>
+          <a:ext cx="1323975" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>点击进入</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1591235" y="1602441"/>
+          <a:ext cx="1524000" cy="280147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户名</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1546412" y="2969558"/>
+          <a:ext cx="1524000" cy="280147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>密码</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1591235" y="2185147"/>
+          <a:ext cx="3249706" cy="268941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1580029" y="3529853"/>
+          <a:ext cx="3249706" cy="268941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1703294" y="4213412"/>
+          <a:ext cx="1333500" cy="358588"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>登录</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="4247029"/>
+          <a:ext cx="1333500" cy="358588"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>注册新用户</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="840441" y="347382"/>
+          <a:ext cx="5849471" cy="7407089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>地图</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flowchart: Connector 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="963706" y="6555442"/>
+          <a:ext cx="246529" cy="235323"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>672352</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Line Callout 1 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2039470" y="5524501"/>
+          <a:ext cx="1019736" cy="358588"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 275000"/>
+            <a:gd name="adj4" fmla="val -77894"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>我的位置</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5737412" y="1053353"/>
+          <a:ext cx="840441" cy="280147"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>筛选</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414619</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5737412" y="616324"/>
+          <a:ext cx="829236" cy="246529"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>列表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504264</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1187823" y="582706"/>
+          <a:ext cx="4000501" cy="280147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>搜索： 摊位名， 摊主名，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739588" y="7093324"/>
+          <a:ext cx="6073588" cy="739588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="896471" y="7250206"/>
+          <a:ext cx="1176617" cy="425823"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>创建摊位</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>369795</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2420471" y="7250206"/>
+          <a:ext cx="1176617" cy="425823"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>我创建的摊位</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3944471" y="7250206"/>
+          <a:ext cx="1176617" cy="425823"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>关注列表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5390030" y="7250206"/>
+          <a:ext cx="1176617" cy="425823"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>消息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1030941" y="336176"/>
+          <a:ext cx="5098677" cy="280147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>搜索： 摊位名， 摊主名，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9782735" y="1019735"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="896471" y="862853"/>
+          <a:ext cx="5569323" cy="2005853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>快捷搜索</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>414616</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>627528</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rounded Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1098175" y="1255059"/>
+          <a:ext cx="896471" cy="392206"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>美食摊</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>280145</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>537881</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2330821" y="1255059"/>
+          <a:ext cx="941295" cy="392206"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>服饰摊</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>481852</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rounded Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3899646" y="1288677"/>
+          <a:ext cx="941295" cy="392206"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>玩具摊</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>470645</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5255557" y="1288677"/>
+          <a:ext cx="941295" cy="392206"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>电子设备</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1120589" y="1994646"/>
+          <a:ext cx="818029" cy="470647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>肉夹馍</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2297206" y="1994646"/>
+          <a:ext cx="818029" cy="470647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>羊肉串</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3664323" y="1994646"/>
+          <a:ext cx="818029" cy="470647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>臭豆腐</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="974912" y="3104029"/>
+          <a:ext cx="5558117" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>aabc</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="907677" y="3731558"/>
+          <a:ext cx="5558117" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>aabc</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="907677" y="4392705"/>
+          <a:ext cx="5558117" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>aabc</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="918883" y="5098675"/>
+          <a:ext cx="5558117" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>aabc</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="918883" y="5726205"/>
+          <a:ext cx="5558117" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>aabc</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="918883" y="6387352"/>
+          <a:ext cx="5558117" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>aabc</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="918883" y="7093323"/>
+          <a:ext cx="5558117" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>aabc</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="842682" y="347382"/>
+          <a:ext cx="5867401" cy="7477686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>列表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5755341" y="1060077"/>
+          <a:ext cx="842683" cy="283508"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>筛选</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414619</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5755341" y="619686"/>
+          <a:ext cx="831478" cy="248210"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>列表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504264</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190064" y="586068"/>
+          <a:ext cx="4013948" cy="281828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>搜索： 摊位名， 摊主名，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="741829" y="7157198"/>
+          <a:ext cx="6091518" cy="746311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="898712" y="7315760"/>
+          <a:ext cx="1181100" cy="429185"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>创建摊位</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>369795</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2427195" y="7315760"/>
+          <a:ext cx="1181099" cy="429185"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>我创建的摊位</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3955677" y="7315760"/>
+          <a:ext cx="1181099" cy="429185"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>关注列表</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5405718" y="7315760"/>
+          <a:ext cx="1181100" cy="429185"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>消息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1131794" y="1490382"/>
+          <a:ext cx="5177118" cy="705971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1098176" y="2386852"/>
+          <a:ext cx="5177118" cy="705971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1098176" y="3361764"/>
+          <a:ext cx="5177118" cy="705971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1064558" y="4347882"/>
+          <a:ext cx="5177118" cy="705971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1064558" y="5367617"/>
+          <a:ext cx="5177118" cy="705971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4821,584 +8741,584 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="6" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="3"/>
-      <c r="M7" s="1" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="M7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="3"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="3"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="3"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="12"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="12"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="12"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="6"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="6"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="15"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="15"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="15"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="6"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="6"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="15"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="15"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="6"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="6"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="6"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="15"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="15"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="6"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="6"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="6"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="15"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="15"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="6"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="6"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="6"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="15"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="15"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="6"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="6"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="6"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="15"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="15"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="6"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="6"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="6"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="15"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="15"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="6"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="6"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="6"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="15"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="15"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="6"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="6"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="6"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="15"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="15"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="15"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="6"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="6"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="6"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="15"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="15"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="6"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="6"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="6"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="15"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="15"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="6"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="6"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="6"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="15"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="15"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="6"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="6"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="6"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="15"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="15"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="6"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="6"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="6"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="15"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="15"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="15"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="6"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="6"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="6"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="15"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="15"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="15"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="6"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="6"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="6"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="15"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="15"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="15"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="6"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="6"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="6"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="15"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="15"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="15"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="6"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="6"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="6"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="15"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="15"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="15"/>
     </row>
     <row r="26" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="9"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="9"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="9"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="18"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="18"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="18"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="18"/>
     </row>
     <row r="30" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="G31" s="1"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="3"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="12"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="G32" s="4"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="6"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="15"/>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G33" s="4"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="6"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="15"/>
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="6"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G35" s="4"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="6"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G36" s="4"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="6"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G37" s="4"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="15"/>
     </row>
     <row r="38" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G38" s="4"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="6"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
     </row>
     <row r="39" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G39" s="4"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="6"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15"/>
     </row>
     <row r="40" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G40" s="4"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="6"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="15"/>
     </row>
     <row r="41" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G41" s="4"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="6"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G42" s="4"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="6"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="15"/>
     </row>
     <row r="43" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G43" s="4"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="6"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="15"/>
     </row>
     <row r="44" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G44" s="4"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="6"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="15"/>
     </row>
     <row r="45" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G45" s="4"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="6"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="15"/>
     </row>
     <row r="46" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G46" s="4"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="6"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="15"/>
     </row>
     <row r="47" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G47" s="4"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="6"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="15"/>
     </row>
     <row r="48" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G48" s="4"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="6"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="15"/>
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G49" s="4"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="6"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="15"/>
     </row>
     <row r="50" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G50" s="7"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="9"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B7:E26"/>
+    <mergeCell ref="G31:J50"/>
+    <mergeCell ref="W7:Z26"/>
     <mergeCell ref="M7:P26"/>
     <mergeCell ref="R7:U26"/>
     <mergeCell ref="G7:J26"/>
-    <mergeCell ref="B7:E26"/>
-    <mergeCell ref="G31:J50"/>
-    <mergeCell ref="W7:Z26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5409,14 +9329,2501 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R27"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="6"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="6"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="6"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="6"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="6"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="6"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="6"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="6"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="6"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="6"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="6"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="6"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="6"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="6"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="6"/>
+    </row>
+    <row r="27" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="9"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I38"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J44"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J44"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>